--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -4878,7 +4878,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -4878,7 +4878,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>93</v>
